--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eirikhoy/Dropbox/Manuscript_ImmunoSEQ_COMET/files_for_GigaScience/tmp/airr_tools-master/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A5D209-2713-F04D-9547-9627A07E0C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992D0E79-074B-AF45-AC82-535F86F1AFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="-2020" windowWidth="38400" windowHeight="24000" xr2:uid="{50A31BC9-7FEF-3649-94E3-071AE8B39C26}"/>
   </bookViews>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058E9E44-E7DF-1746-A363-8E0E28ABBF75}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,22 +1307,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1331,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1348,34 +1348,34 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1389,16 +1389,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
         <v>180</v>
@@ -1410,36 +1410,36 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>7</v>
+      <c r="L4" t="s">
+        <v>172</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>180</v>
@@ -1448,16 +1448,16 @@
         <v>168</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1512,34 +1512,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1676,34 +1676,34 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1717,34 +1717,34 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1758,101 +1758,101 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>172</v>
+      <c r="L13">
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
-        <v>172</v>
+      <c r="L14">
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
         <v>170</v>
@@ -1861,54 +1861,54 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
         <v>170</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1922,57 +1922,57 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
         <v>170</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>7</v>
+      <c r="L17" t="s">
+        <v>172</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>180</v>
@@ -1987,39 +1987,39 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>7</v>
+      <c r="L18" t="s">
+        <v>172</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2028,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2045,22 +2045,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2069,39 +2069,39 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>172</v>
+      <c r="L20">
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2127,34 +2127,34 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2168,63 +2168,63 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>172</v>
+      <c r="L23">
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2233,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2250,22 +2250,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2274,27 +2274,27 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>3</v>
+      <c r="L25" t="s">
+        <v>172</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2332,34 +2332,34 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2373,22 +2373,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
         <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2397,39 +2397,39 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>9</v>
+      <c r="L28" t="s">
+        <v>172</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2438,39 +2438,39 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>7</v>
+      <c r="L29" t="s">
+        <v>172</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2479,51 +2479,51 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
-        <v>172</v>
+      <c r="L30">
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
         <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2537,19 +2537,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -2561,92 +2561,92 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32" t="s">
-        <v>172</v>
+      <c r="L32">
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
         <v>169</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" t="s">
-        <v>172</v>
+      <c r="L33">
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2660,22 +2660,22 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2684,51 +2684,51 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>4</v>
+      <c r="L35" t="s">
+        <v>172</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2742,16 +2742,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
         <v>180</v>
@@ -2763,54 +2763,54 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37" t="s">
-        <v>172</v>
+      <c r="L37">
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2824,19 +2824,19 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
         <v>169</v>
@@ -2848,39 +2848,39 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>8</v>
+      <c r="L39" t="s">
+        <v>172</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
         <v>180</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2889,101 +2889,101 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>8</v>
+      <c r="L40" t="s">
+        <v>172</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41" t="s">
-        <v>172</v>
+      <c r="L41">
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
         <v>170</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>5</v>
+      <c r="L42" t="s">
+        <v>172</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3111,22 +3111,22 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3135,39 +3135,39 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46" t="s">
-        <v>172</v>
+      <c r="L46">
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3176,33 +3176,33 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47">
-        <v>16</v>
+      <c r="L47" t="s">
+        <v>172</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
         <v>180</v>
@@ -3211,33 +3211,33 @@
         <v>169</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48">
-        <v>4</v>
+      <c r="L48" t="s">
+        <v>172</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
         <v>169</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J49" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3275,19 +3275,19 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
         <v>169</v>
@@ -3299,33 +3299,33 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>9</v>
+      <c r="L50" t="s">
+        <v>172</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
         <v>179</v>
@@ -3334,39 +3334,39 @@
         <v>170</v>
       </c>
       <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>286</v>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J51" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>7</v>
+      <c r="L51" t="s">
+        <v>172</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
         <v>179</v>
@@ -3377,78 +3377,78 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="s">
+        <v>286</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J52" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>5</v>
+      <c r="L52" t="s">
+        <v>172</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J53" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>9.6999999999999993</v>
+      <c r="L53" t="s">
+        <v>172</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
         <v>180</v>
@@ -3457,16 +3457,16 @@
         <v>169</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3480,34 +3480,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
         <v>169</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
         <v>179</v>
@@ -3545,45 +3545,45 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="J56" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
-        <v>5.9</v>
+      <c r="L56" t="s">
+        <v>172</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
         <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>133</v>
@@ -3603,98 +3603,98 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J58" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58" t="s">
-        <v>172</v>
+      <c r="L58">
+        <v>5</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
         <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J59" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -3703,39 +3703,39 @@
         <v>170</v>
       </c>
       <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>286</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J60" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60" t="s">
-        <v>172</v>
+      <c r="L60">
+        <v>7</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
         <v>179</v>
@@ -3746,43 +3746,43 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" t="s">
-        <v>286</v>
+      <c r="H61">
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J61" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61" t="s">
-        <v>172</v>
+      <c r="L61">
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3791,16 +3791,16 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J62" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>11.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -3808,16 +3808,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
         <v>179</v>
@@ -3826,22 +3826,22 @@
         <v>169</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3849,16 +3849,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
         <v>179</v>
@@ -3867,25 +3867,25 @@
         <v>169</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
-      <c r="L64" t="s">
-        <v>172</v>
+      <c r="L64">
+        <v>7.6</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3931,60 +3931,60 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F66" t="s">
         <v>169</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>23.1</v>
+        <v>7.9</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
         <v>169</v>
@@ -3996,16 +3996,16 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4013,81 +4013,81 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
         <v>180</v>
       </c>
       <c r="F68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J68" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
-      <c r="L68" t="s">
-        <v>172</v>
+      <c r="L68">
+        <v>9.9</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
         <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J69" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4095,57 +4095,57 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
         <v>180</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J70" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>11.9</v>
+        <v>7</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
         <v>180</v>
@@ -4160,57 +4160,57 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J71" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
         <v>179</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4218,63 +4218,63 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="L73" t="s">
-        <v>172</v>
+      <c r="L73">
+        <v>6.9</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4283,16 +4283,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J74" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4300,16 +4300,16 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>180</v>
@@ -4318,63 +4318,63 @@
         <v>170</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
-      <c r="L75" t="s">
-        <v>172</v>
+      <c r="L75">
+        <v>7.6</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F76" t="s">
         <v>170</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>7.1</v>
+        <v>9.4</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4382,60 +4382,60 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
         <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s">
         <v>168</v>
@@ -4447,16 +4447,16 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4464,22 +4464,22 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4488,16 +4488,16 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="J79" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4505,16 +4505,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
         <v>179</v>
@@ -4529,16 +4529,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J80" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4546,57 +4546,57 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E81" t="s">
         <v>180</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81" t="s">
-        <v>156</v>
-      </c>
-      <c r="J81" t="s">
-        <v>156</v>
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="J81">
+        <v>50</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
         <v>180</v>
@@ -4611,74 +4611,74 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>24.4</v>
+        <v>2.9</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
         <v>179</v>
       </c>
       <c r="F83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
-      <c r="L83" t="s">
-        <v>172</v>
+      <c r="L83">
+        <v>3.9</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
         <v>76</v>
-      </c>
-      <c r="B84" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>69</v>
       </c>
       <c r="E84" t="s">
         <v>180</v>
@@ -4693,36 +4693,36 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="J84" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>77</v>
       </c>
-      <c r="B85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>65</v>
-      </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F85" t="s">
         <v>170</v>
@@ -4734,33 +4734,33 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="J85" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E86" t="s">
         <v>179</v>
@@ -4769,168 +4769,168 @@
         <v>169</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="J86" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>5.9</v>
+        <v>11.1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>4.0999999999999996</v>
+        <v>23.1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F88" t="s">
         <v>170</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="J88" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>6.7</v>
+        <v>11.9</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
         <v>180</v>
       </c>
       <c r="F89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J89" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
-      <c r="L89">
-        <v>25.9</v>
+      <c r="L89" t="s">
+        <v>172</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E90" t="s">
         <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4939,74 +4939,74 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J90" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
         <v>180</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91">
-        <v>50</v>
-      </c>
-      <c r="J91">
-        <v>50</v>
+      <c r="I91" t="s">
+        <v>156</v>
+      </c>
+      <c r="J91" t="s">
+        <v>156</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>5.0999999999999996</v>
+        <v>19</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E92" t="s">
         <v>180</v>
@@ -5021,65 +5021,65 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J92" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>2.9</v>
+        <v>24.4</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J93" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>3.9</v>
+        <v>25.9</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M93">
-    <sortCondition ref="B2:B93"/>
+    <sortCondition ref="A2:A93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
